--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$100</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,10 +468,368 @@
     <t>Allows identification of the communication request as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:type.coding.code}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.id</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/openimis-identifiers</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>openIMIS UUID</t>
+  </si>
+  <si>
+    <t>Claim UUID generated by openIMIS.</t>
   </si>
   <si>
     <t>CommunicationRequest.basedOn</t>
@@ -551,19 +912,16 @@
     <t>CommunicationRequest.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the proposal or order.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the communication request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+    <t>active | completed | revoked</t>
+  </si>
+  <si>
+    <t>Coverage Status:
+  * active: claim feedback selected
+  * completed: claim feedback delivered
+  * revoked: claim feedback bypassed</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/communication-request-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -579,10 +937,6 @@
 Cancelled Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Reason for current status</t>
   </si>
   <si>
@@ -592,28 +946,28 @@
     <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason why the CommunicationRequest was created at all is captured in reasonCode, not here.  [distinct reason codes for different statuses can be enforced using invariants if they are universal bindings].</t>
   </si>
   <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/feedback-status</t>
+  </si>
+  <si>
+    <t>Request.statusReason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.category</t>
+  </si>
+  <si>
+    <t>Message category</t>
+  </si>
+  <si>
+    <t>The type of message to be sent such as alert, notification, reminder, instruction, etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one communication request may serve multiple purposes.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of a request.</t>
-  </si>
-  <si>
-    <t>Request.statusReason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.category</t>
-  </si>
-  <si>
-    <t>Message category</t>
-  </si>
-  <si>
-    <t>The type of message to be sent such as alert, notification, reminder, instruction, etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one communication request may serve multiple purposes.</t>
   </si>
   <si>
     <t>Codes for general categories of communications such as alerts, instruction, etc.</t>
@@ -656,10 +1010,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>True if request is prohibiting action</t>
   </si>
   <si>
@@ -697,7 +1047,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-patient)
 </t>
   </si>
   <si>
@@ -714,6 +1064,10 @@
   </si>
   <si>
     <t>CommunicationRequest.about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-claim)
+</t>
   </si>
   <si>
     <t>Resources that pertain to this communication request</t>
@@ -753,6 +1107,9 @@
     <t>CommunicationRequest.payload</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -763,28 +1120,14 @@
     <t>Text, attachment(s), or resource(s) to be communicated to the recipient.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:contentString}
+</t>
+  </si>
+  <si>
     <t>CommunicationRequest.payload.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CommunicationRequest.payload.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CommunicationRequest.payload.modifierExtension</t>
@@ -807,17 +1150,47 @@
     <t>CommunicationRequest.payload.content[x]</t>
   </si>
   <si>
+    <t>Message part content</t>
+  </si>
+  <si>
+    <t>The communicated content (or for multi-part communications, one portion of the communication).</t>
+  </si>
+  <si>
+    <t>Request.note</t>
+  </si>
+  <si>
+    <t>CareRendered</t>
+  </si>
+  <si>
     <t>string
 AttachmentReference(Resource)</t>
   </si>
   <si>
-    <t>Message part content</t>
-  </si>
-  <si>
-    <t>The communicated content (or for multi-part communications, one portion of the communication).</t>
-  </si>
-  <si>
-    <t>Request.note</t>
+    <t>Care Rendered? (yes|no)</t>
+  </si>
+  <si>
+    <t>PaymentAsked</t>
+  </si>
+  <si>
+    <t>PaymentAsked? (yes|no)</t>
+  </si>
+  <si>
+    <t>DrugPrescribed</t>
+  </si>
+  <si>
+    <t>DrugPrescribed? (yes|no)</t>
+  </si>
+  <si>
+    <t>DrugReceived</t>
+  </si>
+  <si>
+    <t>DrugReceived? (yes|no)</t>
+  </si>
+  <si>
+    <t>Asessment</t>
+  </si>
+  <si>
+    <t>Asessment? (0|1|2|3|4|5)</t>
   </si>
   <si>
     <t>CommunicationRequest.occurrence[x]</t>
@@ -895,14 +1268,14 @@
     <t>CommunicationRequest.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|Group|CareTeam|HealthcareService)
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-enrolment-officer-practitioner)
 </t>
   </si>
   <si>
-    <t>Message recipient</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, device, group, or care team) which is the intended target of the communication.</t>
+    <t>Enrolment Officer</t>
+  </si>
+  <si>
+    <t>Enrolment Officer having enroled the insuree.</t>
   </si>
   <si>
     <t>Request.performer</t>
@@ -1109,6 +1482,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1285,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AL100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1294,8 +1682,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.75" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1304,7 +1692,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.80859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1317,11 +1705,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.6171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.55859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01171875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1331,7 +1719,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="97.8125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1450,7 +1838,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1556,7 +1944,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>81</v>
       </c>
@@ -1664,7 +2052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>89</v>
       </c>
@@ -1770,7 +2158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>95</v>
       </c>
@@ -1878,7 +2266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>101</v>
       </c>
@@ -1986,7 +2374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>110</v>
       </c>
@@ -2094,7 +2482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>118</v>
       </c>
@@ -2202,7 +2590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>126</v>
       </c>
@@ -2310,7 +2698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2420,7 +2808,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>139</v>
       </c>
@@ -2430,13 +2818,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2494,16 +2882,14 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>139</v>
@@ -2521,29 +2907,29 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2552,10 +2938,10 @@
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>150</v>
@@ -2564,9 +2950,7 @@
         <v>151</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2614,37 +2998,37 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>154</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2660,23 +3044,21 @@
         <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>73</v>
       </c>
@@ -2712,19 +3094,19 @@
         <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2736,25 +3118,25 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2767,24 +3149,26 @@
         <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
       </c>
@@ -2808,13 +3192,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2832,7 +3216,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2847,18 +3231,18 @@
         <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
         <v>170</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2875,13 +3259,13 @@
         <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -2889,8 +3273,12 @@
       <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
       </c>
@@ -2914,13 +3302,13 @@
         <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>73</v>
@@ -2938,10 +3326,10 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -2953,22 +3341,22 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2987,17 +3375,15 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -3022,10 +3408,10 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>73</v>
@@ -3046,7 +3432,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3058,25 +3444,25 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3095,16 +3481,16 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3130,31 +3516,31 @@
         <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3166,21 +3552,21 @@
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3191,7 +3577,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3203,22 +3589,24 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P18" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>73</v>
       </c>
@@ -3238,13 +3626,13 @@
         <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>73</v>
@@ -3262,13 +3650,13 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
@@ -3277,22 +3665,22 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3305,30 +3693,26 @@
         <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P19" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3372,7 +3756,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3384,25 +3768,25 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3421,15 +3805,17 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3454,31 +3840,31 @@
         <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3490,7 +3876,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3499,16 +3885,16 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3524,19 +3910,23 @@
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3584,7 +3974,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3599,18 +3989,18 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3621,7 +4011,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -3630,19 +4020,19 @@
         <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3692,13 +4082,13 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
@@ -3707,18 +4097,18 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3741,18 +4131,18 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
       </c>
@@ -3776,13 +4166,11 @@
         <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>73</v>
@@ -3800,7 +4188,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3815,18 +4203,18 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3837,7 +4225,7 @@
         <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>73</v>
@@ -3846,19 +4234,21 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
       </c>
@@ -3906,13 +4296,13 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
@@ -3927,12 +4317,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3952,19 +4342,23 @@
         <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4012,7 +4406,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4024,7 +4418,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4033,23 +4427,23 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>73</v>
@@ -4058,21 +4452,23 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4120,19 +4516,19 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4141,47 +4537,47 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4194,7 +4590,7 @@
         <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>73</v>
@@ -4230,19 +4626,19 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4251,12 +4647,12 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>125</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4276,18 +4672,20 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
@@ -4300,7 +4698,7 @@
         <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>73</v>
@@ -4336,10 +4734,10 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -4351,22 +4749,22 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4385,13 +4783,13 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4442,7 +4840,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4457,22 +4855,22 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4491,15 +4889,17 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4548,7 +4948,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4563,26 +4963,28 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="C31" t="s" s="2">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>82</v>
@@ -4597,16 +4999,20 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4654,13 +5060,13 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
@@ -4669,18 +5075,18 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4691,7 +5097,7 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -4703,13 +5109,13 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>150</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4760,44 +5166,44 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>152</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -4806,18 +5212,20 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -4854,45 +5262,45 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4903,30 +5311,32 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -4950,13 +5360,13 @@
         <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>294</v>
+        <v>166</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>73</v>
@@ -4974,13 +5384,13 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4989,18 +5399,18 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>298</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5011,7 +5421,7 @@
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5023,16 +5433,20 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>172</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5056,13 +5470,13 @@
         <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>73</v>
@@ -5080,13 +5494,13 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
@@ -5095,18 +5509,18 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5117,7 +5531,7 @@
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5129,13 +5543,13 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5186,31 +5600,6931 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X55" s="2"/>
+      <c r="Y55" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG36" t="s" s="2">
+      <c r="M56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI36" t="s" s="2">
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>308</v>
+      <c r="AJ56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AB63" s="2"/>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL100">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI99">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$100</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,368 +465,10 @@
     <t>Allows identification of the communication request as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type.coding.code}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.identifier</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.id</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/openimis-identifiers</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>openIMIS UUID</t>
-  </si>
-  <si>
-    <t>Claim UUID generated by openIMIS.</t>
   </si>
   <si>
     <t>CommunicationRequest.basedOn</t>
@@ -921,6 +560,9 @@
   * revoked: claim feedback bypassed</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/communication-request-status</t>
   </si>
   <si>
@@ -937,6 +579,10 @@
 Cancelled Reason</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Reason for current status</t>
   </si>
   <si>
@@ -1010,6 +656,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>True if request is prohibiting action</t>
   </si>
   <si>
@@ -1120,14 +770,62 @@
     <t>Text, attachment(s), or resource(s) to be communicated to the recipient.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:contentString}
+    <t xml:space="preserve">value:extension[type].valueCodeableConcept.coding.code}
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>CommunicationRequest.payload.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>CommunicationRequest.payload.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/communication-payload-type}
+</t>
+  </si>
+  <si>
+    <t>Payload Type (CommunicationRequest | Communication)</t>
+  </si>
+  <si>
+    <t>Indicates the payload type for a Communication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>CommunicationRequest.payload.modifierExtension</t>
@@ -1162,6 +860,60 @@
     <t>CareRendered</t>
   </si>
   <si>
+    <t>CommunicationRequest.payload.extension.id</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.extension.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/feedback-payload"/&gt;
+    &lt;code value="CareRendered"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>string
 AttachmentReference(Resource)</t>
   </si>
@@ -1172,22 +924,54 @@
     <t>PaymentAsked</t>
   </si>
   <si>
-    <t>PaymentAsked? (yes|no)</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/feedback-payload"/&gt;
+    &lt;code value="PaymentAsked"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Payment Asked? (yes|no)</t>
   </si>
   <si>
     <t>DrugPrescribed</t>
   </si>
   <si>
-    <t>DrugPrescribed? (yes|no)</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/feedback-payload"/&gt;
+    &lt;code value="DrugPrescribed"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Drug Prescribed? (yes|no)</t>
   </si>
   <si>
     <t>DrugReceived</t>
   </si>
   <si>
-    <t>DrugReceived? (yes|no)</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/feedback-payload"/&gt;
+    &lt;code value="DrugReceived"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Drug Received? (yes|no)</t>
   </si>
   <si>
     <t>Asessment</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/feedback-payload"/&gt;
+    &lt;code value="Asessment"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Asessment? (0|1|2|3|4|5)</t>
@@ -1482,21 +1266,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1673,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:AL87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,8 +1451,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.75" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1692,7 +1461,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1705,10 +1474,10 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.45703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="80.55859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="55.8359375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -1719,7 +1488,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="97.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1838,7 +1607,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1944,7 +1713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>81</v>
       </c>
@@ -2052,7 +1821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>89</v>
       </c>
@@ -2158,7 +1927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>95</v>
       </c>
@@ -2266,7 +2035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>101</v>
       </c>
@@ -2374,7 +2143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>110</v>
       </c>
@@ -2482,7 +2251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>118</v>
       </c>
@@ -2590,7 +2359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>126</v>
       </c>
@@ -2698,7 +2467,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2808,7 +2577,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>139</v>
       </c>
@@ -2818,13 +2587,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2882,14 +2651,16 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>139</v>
@@ -2907,29 +2678,29 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2938,10 +2709,10 @@
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>150</v>
@@ -2950,7 +2721,9 @@
         <v>151</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2998,44 +2771,44 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -3044,21 +2817,23 @@
         <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>73</v>
       </c>
@@ -3094,19 +2869,19 @@
         <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -3118,57 +2893,55 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>73</v>
       </c>
@@ -3192,13 +2965,13 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -3216,7 +2989,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -3231,18 +3004,18 @@
         <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3259,13 +3032,13 @@
         <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3273,12 +3046,8 @@
       <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
       </c>
@@ -3302,13 +3071,11 @@
         <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>73</v>
@@ -3326,10 +3093,10 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -3341,26 +3108,26 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>82</v>
@@ -3375,15 +3142,17 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -3408,13 +3177,11 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>73</v>
@@ -3432,7 +3199,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3444,32 +3211,32 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3481,16 +3248,16 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3516,31 +3283,31 @@
         <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3552,21 +3319,21 @@
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3577,7 +3344,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3589,24 +3356,22 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="Q18" t="s" s="2">
         <v>73</v>
       </c>
@@ -3626,13 +3391,13 @@
         <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>73</v>
@@ -3650,13 +3415,13 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
@@ -3665,54 +3430,58 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Q19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3756,7 +3525,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3768,32 +3537,32 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>73</v>
@@ -3805,17 +3574,15 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3840,31 +3607,31 @@
         <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3876,7 +3643,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3885,20 +3652,20 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>82</v>
@@ -3910,23 +3677,19 @@
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3974,7 +3737,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3989,18 +3752,18 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4008,7 +3771,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>82</v>
@@ -4020,19 +3783,19 @@
         <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4082,13 +3845,13 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
@@ -4097,18 +3860,18 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4119,7 +3882,7 @@
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -4131,18 +3894,18 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>73</v>
       </c>
@@ -4166,11 +3929,13 @@
         <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>73</v>
@@ -4188,7 +3953,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -4203,18 +3968,18 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>211</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4222,10 +3987,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>73</v>
@@ -4234,21 +3999,19 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>73</v>
       </c>
@@ -4284,25 +4047,23 @@
         <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
@@ -4317,12 +4078,12 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4342,23 +4103,19 @@
         <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4406,7 +4163,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4418,7 +4175,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4427,12 +4184,12 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4440,10 +4197,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>73</v>
@@ -4452,23 +4209,19 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4504,31 +4257,29 @@
         <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4537,20 +4288,22 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>82</v>
@@ -4562,23 +4315,19 @@
         <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4590,7 +4339,7 @@
         <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>73</v>
@@ -4626,19 +4375,19 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4647,46 +4396,48 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>240</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4698,7 +4449,7 @@
         <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>73</v>
@@ -4734,19 +4485,19 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4755,12 +4506,12 @@
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4768,7 +4519,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
@@ -4780,16 +4531,16 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4840,10 +4591,10 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -4855,26 +4606,28 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
@@ -4886,20 +4639,18 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4948,13 +4699,13 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
@@ -4969,22 +4720,20 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>82</v>
@@ -4996,23 +4745,19 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -5060,35 +4805,37 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>73</v>
       </c>
@@ -5097,7 +4844,7 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5109,13 +4856,13 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5166,19 +4913,19 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5187,23 +4934,23 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -5215,17 +4962,15 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -5262,31 +5007,31 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5295,48 +5040,46 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>153</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5360,43 +5103,43 @@
         <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5405,12 +5148,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>169</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5418,7 +5161,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>82</v>
@@ -5430,23 +5173,21 @@
         <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5470,13 +5211,13 @@
         <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>73</v>
@@ -5494,10 +5235,10 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -5506,7 +5247,7 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5515,12 +5256,12 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5543,13 +5284,13 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5588,19 +5329,17 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5612,7 +5351,7 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5621,23 +5360,25 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5649,17 +5390,15 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
@@ -5669,7 +5408,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5696,31 +5435,31 @@
         <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5729,16 +5468,16 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5751,25 +5490,25 @@
         <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -5818,7 +5557,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5830,7 +5569,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -5839,12 +5578,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5852,7 +5591,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>82</v>
@@ -5867,13 +5606,13 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5885,7 +5624,7 @@
         <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>73</v>
@@ -5924,10 +5663,10 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -5936,32 +5675,34 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5973,17 +5714,15 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6020,19 +5759,19 @@
         <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6044,7 +5783,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6053,12 +5792,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6078,23 +5817,19 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
       </c>
@@ -6142,7 +5877,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6154,7 +5889,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6163,14 +5898,16 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>198</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6179,7 +5916,7 @@
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -6188,20 +5925,18 @@
         <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6250,19 +5985,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -6271,12 +6006,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>204</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6284,7 +6019,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>82</v>
@@ -6296,21 +6031,19 @@
         <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6319,7 +6052,7 @@
         <v>73</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>261</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>73</v>
@@ -6358,7 +6091,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6370,7 +6103,7 @@
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>73</v>
@@ -6379,23 +6112,23 @@
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>211</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6404,21 +6137,21 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6454,31 +6187,31 @@
         <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6487,12 +6220,12 @@
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6500,7 +6233,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>82</v>
@@ -6512,23 +6245,21 @@
         <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6576,10 +6307,10 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -6588,7 +6319,7 @@
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6597,12 +6328,12 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>225</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6622,23 +6353,19 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6674,19 +6401,17 @@
         <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6707,14 +6432,16 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>232</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6732,23 +6459,19 @@
         <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6757,10 +6480,10 @@
         <v>73</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>73</v>
@@ -6796,7 +6519,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6817,46 +6540,48 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>240</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6868,7 +6593,7 @@
         <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>73</v>
@@ -6904,19 +6629,19 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
@@ -6925,12 +6650,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6938,7 +6663,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>82</v>
@@ -6950,16 +6675,16 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6971,7 +6696,7 @@
         <v>73</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>73</v>
@@ -7010,10 +6735,10 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -7025,26 +6750,28 @@
         <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>253</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>82</v>
@@ -7056,20 +6783,18 @@
         <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7118,13 +6843,13 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
@@ -7139,23 +6864,23 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -7164,21 +6889,19 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
       </c>
@@ -7226,44 +6949,46 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C52" t="s" s="2">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -7272,23 +6997,19 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7336,7 +7057,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7348,32 +7069,32 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>280</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7382,20 +7103,18 @@
         <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7444,7 +7163,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7456,52 +7175,54 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>287</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7526,59 +7247,61 @@
         <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7597,16 +7320,16 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7632,11 +7355,13 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7654,10 +7379,10 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -7666,21 +7391,21 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>301</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7691,7 +7416,7 @@
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -7703,17 +7428,15 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -7738,37 +7461,35 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -7780,17 +7501,19 @@
         <v>73</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7799,7 +7522,7 @@
         <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -7808,30 +7531,28 @@
         <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7846,13 +7567,13 @@
         <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>73</v>
@@ -7870,7 +7591,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7885,29 +7606,29 @@
         <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -7919,24 +7640,24 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7980,33 +7701,33 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8014,10 +7735,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
@@ -8029,13 +7750,13 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8047,7 +7768,7 @@
         <v>73</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>73</v>
@@ -8062,13 +7783,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>329</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -8086,13 +7807,13 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
@@ -8101,7 +7822,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -8110,13 +7831,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C60" t="s" s="2">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8135,13 +7858,13 @@
         <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8192,13 +7915,13 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>73</v>
@@ -8207,18 +7930,18 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8226,7 +7949,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>82</v>
@@ -8241,17 +7964,15 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>338</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8300,35 +8021,37 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8337,7 +8060,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8346,20 +8069,18 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8408,33 +8129,33 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>349</v>
+        <v>73</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8442,10 +8163,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>73</v>
@@ -8457,13 +8178,13 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>352</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8502,29 +8223,31 @@
         <v>73</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AB63" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>73</v>
@@ -8533,23 +8256,23 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
@@ -8561,15 +8284,17 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>73</v>
@@ -8606,31 +8331,31 @@
         <v>73</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>73</v>
@@ -8639,23 +8364,23 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>153</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>73</v>
@@ -8667,16 +8392,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8726,19 +8451,19 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -8747,48 +8472,44 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>73</v>
       </c>
@@ -8824,31 +8545,29 @@
         <v>73</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AB66" s="2"/>
       <c r="AC66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -8860,17 +8579,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>82</v>
@@ -8885,13 +8606,13 @@
         <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8903,7 +8624,7 @@
         <v>73</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>73</v>
@@ -8942,10 +8663,10 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -8957,52 +8678,54 @@
         <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>73</v>
       </c>
@@ -9050,7 +8773,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9062,7 +8785,7 @@
         <v>73</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>73</v>
@@ -9071,12 +8794,12 @@
         <v>73</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9084,7 +8807,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>82</v>
@@ -9099,13 +8822,13 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9117,7 +8840,7 @@
         <v>73</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>73</v>
@@ -9156,10 +8879,10 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -9168,32 +8891,34 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="C70" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>73</v>
@@ -9205,17 +8930,15 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9264,7 +8987,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9276,7 +8999,7 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>73</v>
@@ -9285,48 +9008,44 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
       </c>
@@ -9374,19 +9093,19 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9395,23 +9114,25 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>125</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9423,13 +9144,13 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>368</v>
+        <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9441,7 +9162,7 @@
         <v>73</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>73</v>
@@ -9480,22 +9201,22 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>73</v>
@@ -9504,19 +9225,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>82</v>
@@ -9531,13 +9250,13 @@
         <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>352</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9588,19 +9307,19 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9609,23 +9328,23 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9637,15 +9356,17 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9682,31 +9403,31 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9715,23 +9436,23 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>153</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9743,16 +9464,16 @@
         <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9802,19 +9523,19 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -9823,48 +9544,44 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9900,31 +9617,29 @@
         <v>73</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>73</v>
@@ -9936,17 +9651,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>82</v>
@@ -9961,13 +9678,13 @@
         <v>73</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>368</v>
+        <v>180</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9979,7 +9696,7 @@
         <v>73</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>73</v>
@@ -10018,10 +9735,10 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -10033,52 +9750,54 @@
         <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
       </c>
@@ -10126,7 +9845,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10138,7 +9857,7 @@
         <v>73</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>73</v>
@@ -10147,12 +9866,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10160,7 +9879,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>82</v>
@@ -10175,13 +9894,13 @@
         <v>73</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10193,7 +9912,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10232,10 +9951,10 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -10244,32 +9963,32 @@
         <v>73</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>73</v>
@@ -10278,20 +9997,18 @@
         <v>73</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>73</v>
@@ -10340,69 +10057,65 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>128</v>
+        <v>308</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>73</v>
       </c>
@@ -10450,44 +10163,44 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10496,16 +10209,16 @@
         <v>73</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10517,7 +10230,7 @@
         <v>73</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>73</v>
@@ -10556,10 +10269,10 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -10571,22 +10284,20 @@
         <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>73</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10607,13 +10318,13 @@
         <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10664,7 +10375,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -10679,18 +10390,18 @@
         <v>94</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10701,7 +10412,7 @@
         <v>74</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>73</v>
@@ -10710,16 +10421,16 @@
         <v>73</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10770,7 +10481,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10782,32 +10493,32 @@
         <v>73</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
@@ -10816,19 +10527,19 @@
         <v>73</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10854,13 +10565,13 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10878,7 +10589,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10890,57 +10601,53 @@
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>153</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>73</v>
       </c>
@@ -10988,7 +10695,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11000,21 +10707,21 @@
         <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11022,10 +10729,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>73</v>
@@ -11037,13 +10744,13 @@
         <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11055,7 +10762,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11094,13 +10801,13 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>73</v>
@@ -11109,1422 +10816,16 @@
         <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>428</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL100">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines a CommunicationRequest for openIMIS which maps to the Claim Feedback in openIMIS.</t>
+    <t>Defines a CommunicationRequest for openIMIS which maps to the Claim request for feedback in openIMIS.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -866,9 +866,6 @@
     <t>CommunicationRequest.payload.extension.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
@@ -882,6 +879,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/communication-payload-type</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -912,6 +912,9 @@
     &lt;code value="CareRendered"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/feedback-payload</t>
   </si>
   <si>
     <t>string
@@ -4841,10 +4844,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -4856,13 +4859,13 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4922,7 +4925,7 @@
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>133</v>
@@ -5049,14 +5052,14 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5071,14 +5074,12 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5118,7 +5119,7 @@
         <v>251</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>73</v>
@@ -5148,12 +5149,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5179,13 +5180,13 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5193,7 +5194,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>73</v>
@@ -5423,13 +5424,11 @@
         <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>73</v>
@@ -5606,7 +5605,7 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>265</v>
@@ -5624,7 +5623,7 @@
         <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>73</v>
@@ -5692,7 +5691,7 @@
         <v>236</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>73</v>
@@ -5913,10 +5912,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5928,13 +5927,13 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5994,7 +5993,7 @@
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>133</v>
@@ -6121,14 +6120,14 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6143,14 +6142,12 @@
         <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>73</v>
@@ -6190,7 +6187,7 @@
         <v>251</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>73</v>
@@ -6220,12 +6217,12 @@
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6251,13 +6248,13 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6265,7 +6262,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>73</v>
@@ -6480,7 +6477,7 @@
         <v>73</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>73</v>
@@ -6495,13 +6492,11 @@
         <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -6678,7 +6673,7 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>265</v>
@@ -6696,7 +6691,7 @@
         <v>73</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>73</v>
@@ -6764,7 +6759,7 @@
         <v>236</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>73</v>
@@ -6985,10 +6980,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -7000,13 +6995,13 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7066,7 +7061,7 @@
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>133</v>
@@ -7193,14 +7188,14 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7215,14 +7210,12 @@
         <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7262,7 +7255,7 @@
         <v>251</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
@@ -7292,12 +7285,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7323,13 +7316,13 @@
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7337,7 +7330,7 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>73</v>
@@ -7552,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7567,13 +7560,11 @@
         <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>73</v>
@@ -7750,7 +7741,7 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>265</v>
@@ -7768,7 +7759,7 @@
         <v>73</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>73</v>
@@ -7836,7 +7827,7 @@
         <v>236</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
@@ -8057,10 +8048,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8072,13 +8063,13 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8138,7 +8129,7 @@
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>133</v>
@@ -8265,14 +8256,14 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
@@ -8287,14 +8278,12 @@
         <v>128</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>73</v>
@@ -8334,7 +8323,7 @@
         <v>251</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>73</v>
@@ -8364,12 +8353,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8395,13 +8384,13 @@
         <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8409,7 +8398,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>73</v>
@@ -8624,7 +8613,7 @@
         <v>73</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>73</v>
@@ -8639,13 +8628,11 @@
         <v>73</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>73</v>
@@ -8822,7 +8809,7 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>265</v>
@@ -8840,7 +8827,7 @@
         <v>73</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>73</v>
@@ -8908,7 +8895,7 @@
         <v>236</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
@@ -9129,10 +9116,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9144,13 +9131,13 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9210,7 +9197,7 @@
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>133</v>
@@ -9337,14 +9324,14 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9359,14 +9346,12 @@
         <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9406,7 +9391,7 @@
         <v>251</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
@@ -9436,12 +9421,12 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9467,13 +9452,13 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9481,7 +9466,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>73</v>
@@ -9696,7 +9681,7 @@
         <v>73</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>73</v>
@@ -9711,13 +9696,11 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -9894,7 +9877,7 @@
         <v>73</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>265</v>
@@ -9912,7 +9895,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -9977,11 +9960,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10000,13 +9983,13 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10057,7 +10040,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10072,10 +10055,10 @@
         <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>73</v>
@@ -10083,11 +10066,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10106,13 +10089,13 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10163,7 +10146,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10178,10 +10161,10 @@
         <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>73</v>
@@ -10189,11 +10172,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10212,13 +10195,13 @@
         <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10269,7 +10252,7 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -10284,18 +10267,18 @@
         <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10318,13 +10301,13 @@
         <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10375,7 +10358,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -10390,10 +10373,10 @@
         <v>94</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>73</v>
@@ -10401,7 +10384,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10424,13 +10407,13 @@
         <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10481,7 +10464,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10496,10 +10479,10 @@
         <v>94</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>73</v>
@@ -10507,7 +10490,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10533,13 +10516,13 @@
         <v>180</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10568,10 +10551,10 @@
         <v>191</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10589,7 +10572,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10604,18 +10587,18 @@
         <v>94</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10638,13 +10621,13 @@
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10695,7 +10678,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -10710,18 +10693,18 @@
         <v>94</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10744,13 +10727,13 @@
         <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10801,7 +10784,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -10822,7 +10805,7 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-communication-request.xlsx
+++ b/StructureDefinition-openimis-communication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
